--- a/assets/records.xlsx
+++ b/assets/records.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sutturka\Documents\GitHub\publication-codes\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sutturka\Documents\GitHub\publication-codeshare\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EDD74CA-60D1-4151-9D80-230992AB33BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B574878-A69D-4ABB-AAD8-0078203C2848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5FA18BE-6EB1-4C18-B2B3-89141BEB536D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Publication Title</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>[NatureComms_2024_Matosevic](https://sagarutturkar.github.io/publication-codes/NatureComms_2024_Matosevic/)</t>
+  </si>
+  <si>
+    <t>2023_1</t>
+  </si>
+  <si>
+    <t>TIGIT contributes to the regulation of 4-1BB and does not define NK cell dysfunction in glioblastoma</t>
+  </si>
+  <si>
+    <t>iScience</t>
+  </si>
+  <si>
+    <t>[iScience_2023_Matosevic](https://sagarutturkar.github.io/publication-codeshare/iScience_2023_Matosevic/)</t>
   </si>
 </sst>
 </file>
@@ -411,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8F2145-1E69-4F12-935D-69D70232E528}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -457,6 +469,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
